--- a/diagram_data/2003_diagram_data.xlsx
+++ b/diagram_data/2003_diagram_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,720 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P8_Berends, Boersma &amp; Weggeman_2003_HR_The structuration of Organization Learning.png</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F2_P11_Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.png</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P24_Elsbach_2003_ASQ_Relating Physical Environment to Self Categorizations.png</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F2_P8_Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.png</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P12_Goodall &amp; Roberts_2003_OrgSci_Repairing Managerial Knowledge-Ability over Distance.png</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F2_P14_Goodall &amp; Roberts_2003_OrgSci_Repairing Managerial Knowledge-Ability over Distance.png</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F2_P6_Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.png</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P3_Thomas Al‐Maskati_2003_ J Management Studies- Contextual Influences on Thinking in Organizations  Learner and Tutor.png</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F2_P3_Vanheule, Lievrouw &amp; Verhaeghe_2003_HR_Burnout and Intersubjectivity - a psychoanalytical study from a Lacanian perspective.png</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F2_P10_Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.png</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F3_P12_Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.png</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P4_Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.png</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P6_Edmondson_2003__J Management Studies _Speaking Up in the Operating Room  How Team Leaders Promote Learning in.png</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P2_Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.png</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P10_Haunschild_2003_HR_Managing employment relationships in flexible labour markets - the case of German repertory theatres.png</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P2_Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.png</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>final_figures/2003/F1_P9_Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.png</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
